--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrejs\Desktop\EVSP_proj_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Toms\Skola\Kursa darbs\thingi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600F0ED-58FB-4EA8-9B9B-A9BBF6491AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBE88A-9BA4-4F8B-88CA-D6FABCBB6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2508" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Number of saved faces:</t>
   </si>
@@ -32,6 +32,33 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>encoding\dataset_Konrad_Wagner.dat</t>
+  </si>
+  <si>
+    <t>Konrad_Wagner</t>
+  </si>
+  <si>
+    <t>encoding\dataset_AB+-.dat</t>
+  </si>
+  <si>
+    <t>AB+-</t>
+  </si>
+  <si>
+    <t>encoding\dataset_Name.dat</t>
+  </si>
+  <si>
+    <t>encoding\dataset_Plate.dat</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>encoding\dataset_Plat2.dat</t>
+  </si>
+  <si>
+    <t>Plat2</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,27 +539,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H50"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -544,52 +571,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -597,8 +669,11 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -606,8 +681,11 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -615,8 +693,11 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -624,8 +705,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -633,8 +717,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -642,8 +729,11 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -651,8 +741,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -660,8 +753,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -669,8 +765,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -678,8 +777,11 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -687,8 +789,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -696,8 +801,11 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -705,8 +813,11 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -714,8 +825,11 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -723,8 +837,11 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -732,8 +849,11 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -741,8 +861,11 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -750,8 +873,11 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -759,8 +885,11 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -768,8 +897,11 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -777,8 +909,11 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -786,8 +921,11 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -795,8 +933,11 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -804,8 +945,11 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -813,8 +957,11 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -822,8 +969,11 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -831,8 +981,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -840,8 +993,11 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -849,8 +1005,11 @@
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -858,8 +1017,11 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -867,8 +1029,11 @@
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -876,8 +1041,11 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -885,8 +1053,11 @@
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -894,8 +1065,11 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
@@ -903,8 +1077,11 @@
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -912,8 +1089,11 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -921,8 +1101,11 @@
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -930,8 +1113,11 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -939,8 +1125,11 @@
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
@@ -948,8 +1137,11 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
@@ -957,6 +1149,9 @@
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
+      <c r="I50">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Toms\Skola\Kursa darbs\thingi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBE88A-9BA4-4F8B-88CA-D6FABCBB6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A869B8-5913-4DEC-96BB-D046373F9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2508" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Number of saved faces:</t>
   </si>
@@ -32,33 +32,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>encoding\dataset_Konrad_Wagner.dat</t>
-  </si>
-  <si>
-    <t>Konrad_Wagner</t>
-  </si>
-  <si>
-    <t>encoding\dataset_AB+-.dat</t>
-  </si>
-  <si>
-    <t>AB+-</t>
-  </si>
-  <si>
-    <t>encoding\dataset_Name.dat</t>
-  </si>
-  <si>
-    <t>encoding\dataset_Plate.dat</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>encoding\dataset_Plat2.dat</t>
-  </si>
-  <si>
-    <t>Plat2</t>
   </si>
 </sst>
 </file>
@@ -555,7 +528,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -572,35 +545,23 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6">
@@ -608,17 +569,11 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7">
@@ -626,39 +581,27 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
